--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -543,10 +543,10 @@
         <v>6.062884</v>
       </c>
       <c r="I2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J2">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N2">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O2">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P2">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q2">
-        <v>6.113083332212446</v>
+        <v>1.037622851027111</v>
       </c>
       <c r="R2">
-        <v>55.01774998991201</v>
+        <v>9.338605659243999</v>
       </c>
       <c r="S2">
-        <v>0.06210263192837072</v>
+        <v>0.008328107259900691</v>
       </c>
       <c r="T2">
-        <v>0.06210263192837071</v>
+        <v>0.008328107259900689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>6.062884</v>
       </c>
       <c r="I3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J3">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P3">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q3">
-        <v>3.286366736240445</v>
+        <v>3.286366736240444</v>
       </c>
       <c r="R3">
         <v>29.577300626164</v>
       </c>
       <c r="S3">
-        <v>0.03338610202267869</v>
+        <v>0.02637684265307788</v>
       </c>
       <c r="T3">
-        <v>0.03338610202267869</v>
+        <v>0.02637684265307788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>6.062884</v>
       </c>
       <c r="I4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J4">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N4">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O4">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P4">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q4">
-        <v>15.15516478713067</v>
+        <v>20.72444312819334</v>
       </c>
       <c r="R4">
-        <v>136.396483084176</v>
+        <v>186.51998815374</v>
       </c>
       <c r="S4">
-        <v>0.1539608687533384</v>
+        <v>0.1663373017493389</v>
       </c>
       <c r="T4">
-        <v>0.1539608687533383</v>
+        <v>0.1663373017493389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.062884</v>
       </c>
       <c r="I5">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="J5">
-        <v>0.3447258214530571</v>
+        <v>0.2503572190582515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N5">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O5">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P5">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q5">
-        <v>9.378531097691557</v>
+        <v>6.14429371173689</v>
       </c>
       <c r="R5">
-        <v>84.406779879224</v>
+        <v>55.29864340563201</v>
       </c>
       <c r="S5">
-        <v>0.09527621874866932</v>
+        <v>0.04931496739593408</v>
       </c>
       <c r="T5">
-        <v>0.0952762187486693</v>
+        <v>0.04931496739593408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H6">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J6">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N6">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O6">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P6">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q6">
-        <v>11.62009170656223</v>
+        <v>3.106946476473222</v>
       </c>
       <c r="R6">
-        <v>104.58082535906</v>
+        <v>27.962518288259</v>
       </c>
       <c r="S6">
-        <v>0.1180481663686681</v>
+        <v>0.02493679035810233</v>
       </c>
       <c r="T6">
-        <v>0.1180481663686681</v>
+        <v>0.02493679035810232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H7">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J7">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P7">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q7">
-        <v>6.246910238452223</v>
+        <v>9.840343764069887</v>
       </c>
       <c r="R7">
-        <v>56.22219214607001</v>
+        <v>88.563093876629</v>
       </c>
       <c r="S7">
-        <v>0.06346217549234069</v>
+        <v>0.07897998609065682</v>
       </c>
       <c r="T7">
-        <v>0.06346217549234068</v>
+        <v>0.07897998609065683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H8">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I8">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J8">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N8">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O8">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P8">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q8">
-        <v>28.80778734465334</v>
+        <v>62.05504773750167</v>
       </c>
       <c r="R8">
-        <v>259.2700861018801</v>
+        <v>558.495429637515</v>
       </c>
       <c r="S8">
-        <v>0.2926574556424857</v>
+        <v>0.4980625600762415</v>
       </c>
       <c r="T8">
-        <v>0.2926574556424856</v>
+        <v>0.4980625600762415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.841556666666667</v>
+        <v>6.051349666666667</v>
       </c>
       <c r="H9">
-        <v>11.52467</v>
+        <v>18.154049</v>
       </c>
       <c r="I9">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417484</v>
       </c>
       <c r="J9">
-        <v>0.6552741785469429</v>
+        <v>0.7496427809417485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N9">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O9">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P9">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q9">
-        <v>17.82723799195778</v>
+        <v>18.39781350150578</v>
       </c>
       <c r="R9">
-        <v>160.44514192762</v>
+        <v>165.580321513552</v>
       </c>
       <c r="S9">
-        <v>0.1811063810434485</v>
+        <v>0.1476634444167478</v>
       </c>
       <c r="T9">
-        <v>0.1811063810434484</v>
+        <v>0.1476634444167478</v>
       </c>
     </row>
   </sheetData>
